--- a/Appium_Capstone/TestData/TestData.xlsx
+++ b/Appium_Capstone/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mages\eclipse-workspace\Appium_Capstone\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA75CF8-34B6-4A71-9000-2D019435438B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A624B-FB69-4424-BCB9-ECDB7187ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TestName</t>
   </si>
@@ -37,9 +37,6 @@
     <t>browser</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>min wait time</t>
   </si>
   <si>
@@ -58,28 +55,13 @@
     <t>`3</t>
   </si>
   <si>
-    <t>`9940533655</t>
-  </si>
-  <si>
-    <t>`Subhiksha@123</t>
-  </si>
-  <si>
-    <t>Search list</t>
-  </si>
-  <si>
-    <t>Mobiles</t>
-  </si>
-  <si>
-    <t>Electronic Toys</t>
-  </si>
-  <si>
-    <t>Mixer Grinder</t>
-  </si>
-  <si>
-    <t>Plants</t>
-  </si>
-  <si>
-    <t>Pressure Cooker</t>
+    <t>`8884900039</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>*******</t>
   </si>
 </sst>
 </file>
@@ -443,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -460,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -480,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -507,48 +489,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EB159D-DBD1-4581-968A-56634646749F}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>